--- a/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. The Committee on Homeland Security's Subcommittee on Emergency Preparedness, Response, and Communications will come to order. The subcommittee is meeting today to examine the proposed cuts to grant programs in the President's fiscal year 2017 budget request.    Before we begin, I ask unanimous consent that the gentleman from New York, Mr. King, a Member of the full committee, be permitted to sit on the dais and participate in today's hearing. Without objection, so ordered.    I also ask unanimous consent to insert in the record a signed letter by 17 stakeholder organizations opposing the proposed grant cuts.*---------------------------------------------------------------------------    * The information has been included as part of Hon. de Blasio's statement included for the record.---------------------------------------------------------------------------    I now recognize myself for an opening statement.    As Chairman of the Subcommittee on Emergency Preparedness, Response, and Communications, one of my fundamental responsibilities is to ensure our Nation's first responders have the tools they need to protect this country and, God forbid, respond to the next terrorist attack. That is why my first hearing is focusing on the dangerous cuts to homeland security grants proposed in the President's fiscal year 2017 budget request.    The President's budget cuts more than $500 million from programs that support States, cities, ports, transit systems, and fire services. This funding helps provide the training and equipment so critical to enabling our first responders to meet threats as varied as active-shooter scenarios, mass casualty events from a nuclear, chemical, or biological attack, and bomb plots targeting civilians in high-traffic areas.    Such threats aren't just theories--in the nearly 15 years since the tragic attacks in 2001, law enforcement has thwarted sinister plots like these and more, including one involving an ISIS sympathizer in my own district. As this committee documented in a recent report issued by Chairman McCaul, there have been 75 terrorism plots against the West since early 2014. Forty-three percent of them were successfully executed, and the United States is the top target.    Law enforcement, including the New York City Police Department and Joint Terrorism Task Forces, deserve our thanks for keeping Americans safe. So far, there have been 81 ISIS-linked arrests in the United States, a number that will only grow as the organization continues to spread viral terrorism over the internet.    Proposing cuts to the programs that keep the homeland safe would be foolish in any case, but they are particularly outrageous at a time when our threat level is the highest it has been since 2001. It would seem that either the President doesn't believe these threats exist or he doesn't care. But make no mistake: This is not the time for the Federal Government to cut support to help our Nation's first responders combat terror attacks.    In discussing the budget proposal with the administration, we have heard various justifications for the cuts. They have told us that the cuts are a result of, ``FEMA's successful investments in prior years.'' They have claimed that it is a result of unspent funding from prior years. They have told us that the cuts are the result of difficult budget decisions, and that this budget, ``funds all of our vital homeland security missions in these challenging times.''    The truth of the matter is, they have chosen to balance the budget on the backs of first responders knowing that many in Congress will vociferously oppose those cuts. We have heard time and again that these grant programs have made a difference. We heard it after the Boston Marathon bombings. We heard it after the natural disasters like Hurricane Sandy, which devastated my district, and the tornadoes in Moore, Oklahoma.    I am especially interested in hearing how the recent investments made by New York City using Federal Homeland Security grants, such as hiring additional counterterrorism officers this year, could be hamstrung by the sudden drop in Federal funds. New York City and other jurisdictions that benefit from Federal security grants have made real contributions to increasing our country's readiness to meet terrorist threats.    However, for local efforts to be truly effective, there must be a meaningful partnership with the Federal Government. Congress, and this committee in particular, has a history of bipartisanship when it comes to protecting our country and supporting first responders. We did it last year when we came together to permanently reauthorize the Zadroga Act to give 9/11 first responders the health treatment and screenings they earned, and I am pleased to be here today working with Ranking Member Payne to oppose these dangerous homeland security cuts.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman.    Before I begin, I would like to congratulate Mr. Donovan on his Chairmanship, and thank him for holding today's hearing to explore the potential consequences of the proposed cuts to State and local homeland security grant programs.    I represent the 10th Congressional District of New Jersey. It is the home of Newark Liberty International Airport, the New Jersey Transit Authority, the Port of Newark-Elizabeth Marine Terminal, and a dense area of industrial facilities that the New York Times has coined the most dangerous 2 miles in America.    Over 100 potential terrorist targets are interspersed between homes and commuter corridors along that stretch. Those targets, coupled with the proximity to New York City, make the Newark-Jersey City metropolitan area regularly ranked among the most high-risk urban areas in the country.    Although it is a somewhat dubious distinction, it has brought with it critical Federal funding. From the Urban Area Security Initiative to port and transit security grants, Federal funding has helped northern New Jersey improve preparedness planning, achieve interoperable communication capabilities, and harden infrastructure targets.    Most importantly, Federal funding has supported important multi-jurisdictional exercises that challenge existing response capabilities so we can make them stronger. These human capital investments--planning, training, and exercises--cannot be one-off investments. Rather, they must be repeated over time, both to train new responders and to help seasoned responders know how to take on emerging threats.    Like many of my colleagues on this panel, I am very troubled by the administration's proposal to slash important homeland security grants in fiscal year 2017. In the 3\\1/2\\ years I have served as the subcommittee's Ranking Member, I have seen the domestic threat environment evolve, and our first responders are on the front lines.    I understand that the administration has proposed to slash Federal homeland security grant funds to comply with the budget caps, and I take issue with that. We cannot afford to balance the budget on the backs of our first responders. Instead, Federal first responders' funding should be robust and predictable so that the State and local governments can effectively plan for the future investments.    I am sure that the testimony we hear today will help us build the case to appropriators that strong homeland security grant funding should continue. Together, we can fight these cuts and win.    Additionally, I would be interested in learning the witnesses' thoughts on the new grants to counter violent extremism, or CVE, and the proposed Regional Competitive Grant Program. The Department has failed to provide Congress with much detail on either program, and I would be interested to learn if DHS has conducted any outreach to the stakeholders and community about them.    Particularly with respect to CVE grants, I am interested in hearing the witnesses' thoughts on what can be done to guard against certain populations being targeted or profiled. In the past, mosques in my Congressional district were the subject of surveillance by an out-of-State law enforcement agency.    Although the NYPD program was subsequently disbanded, it showed us first-hand the dangers of profiling, and I want to be sure that precautions to avoid such outcomes are taken as we make the new money available for CVE.    I want to thank the witnesses for being here today, particularly Sergeant Kierce, from Jersey City, New Jersey, and I look forward to their testimony.    With that, Mr. Chairman, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Chairman Donovan. Let me congratulate you on your first hearing, your inaugural hearing. I kind-of like the sound of that.</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    Again, Mayor, thank you for your testimony here today. As someone who was born and raised in New York City, my father was in the NYPD for over 30 years, I really tremendously admire the work that is done by all of the agencies, especially NYPD emergency management, my good friend Joe Esposito there; FDNY, Lieutenant Nigro. The job that you have is one which I don't think any of us envy. Maybe it is great to march in the parades, but other than that it's, you know, a lot of abuse and a lot of attention.    Even though Miss Rice and I represent Long Island, the fact is, people should realize that Nassau and Suffolk Counties, as well as Westchester are all part of the UASI. It is New York City, Nassau, Suffolk, Westchester, even parts of Rockland, and also, we have to closely coordinate with northern New Jersey. Whenever you go to any of the mock drills they have, you see how much coordination is involved.    Also, as you said, New York City and the region, New York City region is the No. 1 target in the country. It is important for the rest of the country to realize the tremendous expense involved in that. I mean, you have well over 1,000 police officers working full time in various types of counterterrorism. They also work with the State police, Nassau and Suffolk police, working with the FBI and the JTTF, and it is a constant, really, state of war almost, at least a state of preventing a war. So any cuts at all really can be catastrophic to New Yorkers.    I have been on this committee since the start, and I don't think there is any one method or any one line of defense that is going to stop an attack. What you need are multiple defenses out there, and you certainly train and hope that at least one of those is going to work, is going to stop the next attackers. You don't know where it is going to be coming from; it could be Times Square; it could be the Brooklyn Bridge; it could be the subway system; it could be anywhere.    So I just think all of us on the committee should stand as one, not as Republicans or Democrats or from New York or from the rest of the country, realizing how vital this is that the funding be continued. Also, I think it is important to realize that the NYPD or the FDNY or emergency management, when they are out there doing the job, that is really not a New York City function. That is the Federal Government's responsibility to protect local governments and local municipalities from being attacked. That is a Federal responsibility.    So if you are carrying out a Federal responsibility, at the very least you should be compensated for the work that you do. This isn't a gift. This isn't charity you are getting. I mean, you are doing the work that the Federal Government should be doing. The fact is, you are better equipped to do it in many ways.    But, again, to be shortchanging you at a time like this, when the ISIS threats have never been greater, when we still have al-Qaeda, we still have al-Qaeda in the Arabian Peninsula, and we have the self-starters. We have the people at home sitting in their apartment with the computer who, you know, can become radicalized.    So I am just going to give you the opportunity to expand on how essential it is that all of the city departments and the neighboring locales receive the funding they need on homeland security.    Mr. de Blasio. Thank you very much, Congressman.    Congressman, let me also thank you at the outset, and all of your colleagues. I know you played a particularly crucial role in finally passing the Zadroga Act. I want to thank you for first responders in New York and all over America and so many people who were affected by 9/11. That was such a profound victory. Thank you for your leadership.</t>
   </si>
   <si>
@@ -175,27 +163,18 @@
     <t xml:space="preserve">    Mr. Donovan. I would like to welcome our second panel to today's hearing and thank them for their participation.    Mr. Jim Butterworth serves as the director of the Georgia Emergency Management Agency/Homeland Security, a position which he was appointed to in January 2015. Prior to his appointment, Mr. Butterworth served for 4 years as the adjutant general of Georgia. Previously, he served as a State Senator representing the 50th District in northeast Georgia. Mr. Butterworth is testifying on behalf of the National Emergency Management Association.    Welcome, sir.</t>
   </si>
   <si>
-    <t>Butterworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butterworth. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Chief Rhoda Mae Kerr serves as the fire chief of the Austin Fire Department and previously served in the same position with the city of Little Rock, Arkansas. She was also the deputy fire chief in Fort Lauderdale, Florida. Chief Kerr is the president and chair of the board of directors of the International Association of Fire Chiefs, and she is testifying in that capacity today.    Welcome, Chief.</t>
   </si>
   <si>
-    <t>Kerr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Kerr. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. George Turner was appointed as the 23rd chief of police for the city of Atlanta on July 9, 2010. He is a 32-year veteran of the Atlanta Police Department and has worked in all areas of the department, including the uniformed division and investigations. Chief Turner previously served as the deputy chief of the support services division, which consists of the corporate services section, 9/11 communications center, information services section, and training academy. Chief Turner also serves as the second vice president of the Major Cities Chiefs Association, and he is testifying in that capacity today.    Welcome, Chief.    Mike Sena is the director of the Northern California Regional Intelligence Center, the fusion center in the San Francisco Bay Area. He currently serves as the president of the National Fusion Center Association, which represents the 78 State and locally-owned and -operated fusion centers across the country. Mr. Sena is testifying on behalf of the National Fusion Center Association.    Welcome, sir.</t>
   </si>
   <si>
-    <t>Sena</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sena. Thank you.</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Chief Kerr. The Chair now recognizes Chief Turner.</t>
   </si>
   <si>
-    <t>Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Turner. Thank you. Good morning, Chairman Donovan, and Ranking Member Payne. I appear before you today as the chief of police of Atlanta, the largest metropolitan region in the South. It is also my privilege to serve on the board of directors for Major City Chiefs as the second vice president. I represent every major urban area in our Nation, the communities that would suffer most from further reduction in Federal assistance for law enforcement.    I speak today as one police chief on behalf of my colleagues from the 68 largest police departments in our country. I also received a letter of support from 17 organizations that represent local elected officials, emergency managers, port and transit operators, sheriffs, and major fire associations that have strong concerns about several severe cuts to 4 key homeland security grant programs. We ask the committee to consider the responsibility that each of you share with the chiefs of police protecting the American public from harm.    As we reflect on the events of Paris and San Bernardino, here at home, it is evident that preparedness for a terrorist attack is the highest priority than ever before. There is a certain irony to the proposed cuts. They come in the wake of terrorist attacks not just in cities abroad, but on our own shores, in Chattanooga, San Bernardino, and Philadelphia, for an example.    The proposed budget of DHS would reduce from $41.1 billion to $40.6 billion, a reduction of more than $500 million. But the 2 grant programs which assist States and local agencies would be cut by $537 million, more than the entire amount of the reduction of the Department of Homeland Security.    As a police chief, I have assigned personnel to Federal task forces and our regional fusion center. Every day we are asked to assist one of our Federal agencies or another. But funding from Washington does not even take up a small portion of the amount of money that Atlanta and the city police department provides. The same is true in every other major city in America. We are really subsidizing the Federal Government, because what we receive from Washington does not begin to pay the bill.    The world's busiest airport, Hartsfield-Jackson Airport, is protected by Atlanta personnel and a team effort from DHS that includes the model K-9 program we conduct with TSA. The Urban Area Security Initiative program funds purchases of specific equipment, including a robot that is equipped to board aircrafts. The Federal investment pays off each day in communities across the country during incidents both large and small. For example, much of the training and equipment used to respond to the May 2015 Amtrak derailment in Philadelphia were paid for with grants provided by FEMA.    Chairman Donovan and Ranking Member Payne, chiefs of police are grateful for all you do, and we look to you for leadership. To accept the proposed cuts would forfeit so much of what we have already invested in since the inception of DHS, and leave local agencies like mine on the fence to fend for themselves, with Federal agencies continuing to grow.    As a police chief, we have our common bonds with you. It is the safety of the public we are sworn to protect and serve. To this end, we implore that you restore balance to the partnership with DHS by protecting the funds which sustain the work of the subcommittee.    It is my pleasure to testify today. I look forward to any questions that you might have. I do want to talk about the fact that we need to continue to sustain the efforts that we have already pushed forward thus far in this partnership. Thank you.</t>
   </si>
   <si>
@@ -235,9 +211,6 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Sena. The Chair now recognizes Sergeant Kierce.</t>
   </si>
   <si>
-    <t>Kierce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kierce. Chairman Donovan, Members of the committee, on behalf of Jersey City Mayor Steven M. Fulop, I wish to extend my sincere appreciation to Congressman Donald M. Payne, Jr., and Members of the committee for the opportunity to appear before you this morning.    The intent of the Urban Area Security Initiative program is to enhance regional preparedness in major metropolitan areas. The UASI program provides funding to address the unique multidiscipline planning operations, equipment, and training and exercise needs of high-threat high-density urban areas and to assist in building and sustaining capabilities related to terrorism prevention, protection, mitigation, response, and recovery.    The Jersey City-Newark UASI includes Jersey City, Newark, as well as the counties of Bergen, Essex, Hudson, Middlesex, Morris, Passaic, and Union. The mission of the Jersey City UASI is to ensure the sustainment and enhancement of counterterrorism capabilities and planning and responding to natural and man-made disasters. According to the FBI and the director of the national intelligence, the United States faces a significant and growing threat from individuals in this country who are willing to conduct domestic mass casualty attacks inspired by terrorist ideology. In fact, the DNI has said he anticipates ISIS-inspired attacks within the United States in the year ahead.    The threat of violent extremism poses a great risk to the Jersey City-Newark UASI region due to its dense population, geographic importance, and target-rich environment. The total population associated with the Jersey City-Newark UASI is approximately 4,792,594, which equates to more than half of the entire population of the State of New Jersey, making this region one of the most densely-populated areas in the United States.    In the middle of all this is a section of the New Jersey Turnpike in Union and Essex Counties that run through what the FBI and Government officials from New Jersey have dubbed the most dangerous 2 miles in America for terrorist targets. This area includes the largest port on the East Coast, Newark Airport, major rail lines, densely-populated cities, and chemical and petroleum plants. Former director of the New Jersey Office of Security and Preparedness Charlie McKenna described it best: ``If you want to make New Jersey the heart of America or the heart of the northeast, the Turnpike is the aorta.''    The Jersey City-Newark UASI region ranks 7 in the top 10 UASIs, based on DHS vulnerability and threats assessments. In addition to Port Newark and Newark Airport, the region is home to rail lines, bridges, and tunnels to New York City. Wall Street and other financial service firms house important front and back operations, including clearance and settlement services and other operations essential to the functioning of America's capital marketing, in Jersey City and Newark.    Since 2002, funding provided through the Department of Homeland Security Urban Area Security Initiative has afforded Tier 1 UASI regions to accomplish the following 10 goals. Goal 1 is strengthen CBRNE preparedness and response capabilities by acquiring the necessary equipment, training, and other resources needed by first responders to effectively detect, interdict, and respond to acts of terrorism or accidents involving CBRNE materials or agents.    No. 2, protect critical infrastructure and key resources along the region based on a systemic process of identifying and cataloguing infrastructure, conducting site visits and risk assessments, investing in target-hardening projects, and providing additional protective mitigation measures based on the current threat level.    No. 3, strengthen the information and sharing capabilities through collaborative partnerships with Federal, State, and local and private-sector stakeholders to better protect against and respond to terrorist threats, both foreign and domestic, incidents such as the active-shooter incidents.    No. 4, strengthen counterterrorism and law enforcement capabilities by continuing to improve our counterterrorism operations and partnerships across the region and by building specialized capabilities to address threats and acts of terrorism.    No. 5, enhance emergency management and response capabilities through the implementation of a proactive posture to prepare for the worst-case catastrophic scenarios at all levels of government.    No. 6, advance interoperability emergency communications through the efficient utilization and development of communication resources and procedures to ensure that our first responders can effectively communicate with each other during a major incident in order to protect lives and property.    No. 7, promote citizen and community preparedness by better preparing the Jersey City-Newark UASI region citizens and communities to be ready for disasters and other emergencies, including the ability to sustain themselves for 7 to 10 days after an event to assist their neighborhoods in the aftermath of a disaster.    No. 8, build back better from disasters and become more resilient against future events through thoughtful resiliency planning and by developing long-term recovery capabilities, mitigation initiatives, and other efforts to ensure the continuity of critical systems during a crisis.    No. 9, support health and emergency preparedness by readying the Jersey City-Newark UASI for a potential pandemic, and preparing local communities to distribute medical countermeasures on a large scale, supporting the ability of the health care community to surge bed capacity and other resources to manage large numbers of sick and injured during an incident.    No. 10, enhance community security capabilities through outreach and education, as well as by implementing programs and policies to prevent, protect, and respond to, recover from cyber attacks or other major cyber incidents in collaboration with key partners and stakeholders.    The proposed cuts to DHS UASI funding would have a significant negative impact on our UASI region's disaster preparedness, response, and recovery efforts. Hurricane Sandy and the continued threat of home-grown terrorism demonstrate how we must remain vigilant and prepared. Threats from terrorism and response and recovery efforts associated with natural disasters will not diminish because of the proposed budget cuts to the DHS UASI program. Even in the current fiscal climate we do not have the luxury of making significant reductions to our capabilities without placing our Nation at risk. If we continue to prepare for, respond to, and recover from evolving threats and disasters, we will need sufficient resources to sustain and adapt our capabilities accordingly.    In closing, I wish to offer a quote from your colleague and Ranking Member committee Member, Congressman Donald M. Payne, Jr. These grants are essential to making New Jersey a safer place for families to live and work, and they are critical to bringing economic security to the State. Following Hurricane Sandy, it is clear that we need to invest more to prepare for disasters and mitigate casualties as well as reduce the economic damages that result from these tragedies.    Thank you for affording me the opportunity to appear before you today.</t>
   </si>
   <si>
@@ -326,9 +299,6 @@
   </si>
   <si>
     <t>412624</t>
-  </si>
-  <si>
-    <t>Barry Loudermilk</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. I apologize I missed the earlier part of the committee. I was chairing another committee hearing. But this is something very important to me. I am going to direct my questions to my good friend Mr. Butterworth, as we both served in the State Senate together. He was also the adjutant general of the Georgia National Guard, and now in his current position is fully aware of the emergency preparedness, the status, and the threats that face the State of Georgia.    Let me kind of summarize what we face here in Georgia. We have the busiest airport in the world, Atlanta Hartsfield. We have 130-plus medium- and small-sized airports throughout the State, 2 of the busiest import-export ports in the Nation in Savannah and Brunswick, Georgia. Atlanta is the headquarters of many Fortune 500 companies. We also have the Center for Disease Control in Atlanta, the home of several top research universities, as well as the financial center of the southeast. Weather is also a consideration in Georgia, as we are susceptible to tornadoes, as well as hurricanes coming from the Gulf Coast or the Atlantic Ocean.    Mr. Butterworth, with your knowledge of these, as well as the growing threat that we face from terrorism, how significant are these cuts in our ability to prepare and respond to whether it is a natural disaster, violent extremism, or a target against our citizens?</t>
@@ -811,11 +781,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -837,11 +805,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -861,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -889,11 +853,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -913,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -941,11 +901,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -965,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -993,11 +949,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1019,11 +973,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1045,11 +997,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1071,11 +1021,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1097,11 +1045,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1123,11 +1069,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1147,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1173,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1199,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1225,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1253,11 +1189,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1277,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1303,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1329,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1355,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1383,11 +1309,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1409,11 +1333,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1435,11 +1357,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1459,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1485,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1513,11 +1429,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1537,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1565,11 +1477,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1589,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1617,11 +1525,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1643,11 +1549,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1669,11 +1573,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1693,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1721,11 +1621,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1745,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1773,11 +1669,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1797,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1825,11 +1717,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1849,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1877,11 +1765,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1901,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1929,11 +1813,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1953,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1981,11 +1861,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2005,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2033,11 +1909,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2057,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2085,11 +1957,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2109,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2137,11 +2005,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2161,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2187,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2215,11 +2077,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2239,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
-      </c>
-      <c r="G57" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2267,11 +2125,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2291,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2317,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2345,11 +2197,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2369,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2397,11 +2245,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2421,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2449,11 +2293,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2473,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2501,11 +2341,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2525,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2553,11 +2389,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2577,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2605,11 +2437,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2629,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2655,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
-      </c>
-      <c r="G73" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2681,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2707,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G75" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2733,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2759,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2785,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2811,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2837,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2863,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2891,11 +2701,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2915,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-      <c r="G83" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2941,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G84" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2967,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2993,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
-      </c>
-      <c r="G86" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3019,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-      <c r="G87" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3045,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
-      </c>
-      <c r="G88" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3071,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3097,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
-      </c>
-      <c r="G90" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3123,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>103</v>
-      </c>
-      <c r="G91" t="s">
-        <v>104</v>
-      </c>
-      <c r="H91" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3149,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
-      </c>
-      <c r="G92" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3175,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3201,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3227,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" t="s">
-        <v>104</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3255,11 +3037,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3279,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3307,11 +3085,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3331,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
-      </c>
-      <c r="G99" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3359,11 +3133,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3383,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3409,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3435,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3461,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3487,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3513,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
-      </c>
-      <c r="G106" t="s">
-        <v>53</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3539,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3565,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3591,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
-      </c>
-      <c r="G109" t="s">
-        <v>68</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3617,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3645,11 +3397,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. The Committee on Homeland Security's Subcommittee on Emergency Preparedness, Response, and Communications will come to order. The subcommittee is meeting today to examine the proposed cuts to grant programs in the President's fiscal year 2017 budget request.    Before we begin, I ask unanimous consent that the gentleman from New York, Mr. King, a Member of the full committee, be permitted to sit on the dais and participate in today's hearing. Without objection, so ordered.    I also ask unanimous consent to insert in the record a signed letter by 17 stakeholder organizations opposing the proposed grant cuts.*---------------------------------------------------------------------------    * The information has been included as part of Hon. de Blasio's statement included for the record.---------------------------------------------------------------------------    I now recognize myself for an opening statement.    As Chairman of the Subcommittee on Emergency Preparedness, Response, and Communications, one of my fundamental responsibilities is to ensure our Nation's first responders have the tools they need to protect this country and, God forbid, respond to the next terrorist attack. That is why my first hearing is focusing on the dangerous cuts to homeland security grants proposed in the President's fiscal year 2017 budget request.    The President's budget cuts more than $500 million from programs that support States, cities, ports, transit systems, and fire services. This funding helps provide the training and equipment so critical to enabling our first responders to meet threats as varied as active-shooter scenarios, mass casualty events from a nuclear, chemical, or biological attack, and bomb plots targeting civilians in high-traffic areas.    Such threats aren't just theories--in the nearly 15 years since the tragic attacks in 2001, law enforcement has thwarted sinister plots like these and more, including one involving an ISIS sympathizer in my own district. As this committee documented in a recent report issued by Chairman McCaul, there have been 75 terrorism plots against the West since early 2014. Forty-three percent of them were successfully executed, and the United States is the top target.    Law enforcement, including the New York City Police Department and Joint Terrorism Task Forces, deserve our thanks for keeping Americans safe. So far, there have been 81 ISIS-linked arrests in the United States, a number that will only grow as the organization continues to spread viral terrorism over the internet.    Proposing cuts to the programs that keep the homeland safe would be foolish in any case, but they are particularly outrageous at a time when our threat level is the highest it has been since 2001. It would seem that either the President doesn't believe these threats exist or he doesn't care. But make no mistake: This is not the time for the Federal Government to cut support to help our Nation's first responders combat terror attacks.    In discussing the budget proposal with the administration, we have heard various justifications for the cuts. They have told us that the cuts are a result of, ``FEMA's successful investments in prior years.'' They have claimed that it is a result of unspent funding from prior years. They have told us that the cuts are the result of difficult budget decisions, and that this budget, ``funds all of our vital homeland security missions in these challenging times.''    The truth of the matter is, they have chosen to balance the budget on the backs of first responders knowing that many in Congress will vociferously oppose those cuts. We have heard time and again that these grant programs have made a difference. We heard it after the Boston Marathon bombings. We heard it after the natural disasters like Hurricane Sandy, which devastated my district, and the tornadoes in Moore, Oklahoma.    I am especially interested in hearing how the recent investments made by New York City using Federal Homeland Security grants, such as hiring additional counterterrorism officers this year, could be hamstrung by the sudden drop in Federal funds. New York City and other jurisdictions that benefit from Federal security grants have made real contributions to increasing our country's readiness to meet terrorist threats.    However, for local efforts to be truly effective, there must be a meaningful partnership with the Federal Government. Congress, and this committee in particular, has a history of bipartisanship when it comes to protecting our country and supporting first responders. We did it last year when we came together to permanently reauthorize the Zadroga Act to give 9/11 first responders the health treatment and screenings they earned, and I am pleased to be here today working with Ranking Member Payne to oppose these dangerous homeland security cuts.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman.    Before I begin, I would like to congratulate Mr. Donovan on his Chairmanship, and thank him for holding today's hearing to explore the potential consequences of the proposed cuts to State and local homeland security grant programs.    I represent the 10th Congressional District of New Jersey. It is the home of Newark Liberty International Airport, the New Jersey Transit Authority, the Port of Newark-Elizabeth Marine Terminal, and a dense area of industrial facilities that the New York Times has coined the most dangerous 2 miles in America.    Over 100 potential terrorist targets are interspersed between homes and commuter corridors along that stretch. Those targets, coupled with the proximity to New York City, make the Newark-Jersey City metropolitan area regularly ranked among the most high-risk urban areas in the country.    Although it is a somewhat dubious distinction, it has brought with it critical Federal funding. From the Urban Area Security Initiative to port and transit security grants, Federal funding has helped northern New Jersey improve preparedness planning, achieve interoperable communication capabilities, and harden infrastructure targets.    Most importantly, Federal funding has supported important multi-jurisdictional exercises that challenge existing response capabilities so we can make them stronger. These human capital investments--planning, training, and exercises--cannot be one-off investments. Rather, they must be repeated over time, both to train new responders and to help seasoned responders know how to take on emerging threats.    Like many of my colleagues on this panel, I am very troubled by the administration's proposal to slash important homeland security grants in fiscal year 2017. In the 3\\1/2\\ years I have served as the subcommittee's Ranking Member, I have seen the domestic threat environment evolve, and our first responders are on the front lines.    I understand that the administration has proposed to slash Federal homeland security grant funds to comply with the budget caps, and I take issue with that. We cannot afford to balance the budget on the backs of our first responders. Instead, Federal first responders' funding should be robust and predictable so that the State and local governments can effectively plan for the future investments.    I am sure that the testimony we hear today will help us build the case to appropriators that strong homeland security grant funding should continue. Together, we can fight these cuts and win.    Additionally, I would be interested in learning the witnesses' thoughts on the new grants to counter violent extremism, or CVE, and the proposed Regional Competitive Grant Program. The Department has failed to provide Congress with much detail on either program, and I would be interested to learn if DHS has conducted any outreach to the stakeholders and community about them.    Particularly with respect to CVE grants, I am interested in hearing the witnesses' thoughts on what can be done to guard against certain populations being targeted or profiled. In the past, mosques in my Congressional district were the subject of surveillance by an out-of-State law enforcement agency.    Although the NYPD program was subsequently disbanded, it showed us first-hand the dangers of profiling, and I want to be sure that precautions to avoid such outcomes are taken as we make the new money available for CVE.    I want to thank the witnesses for being here today, particularly Sergeant Kierce, from Jersey City, New Jersey, and I look forward to their testimony.    With that, Mr. Chairman, I will yield back the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McCaul. Thank you, Chairman Donovan. Let me congratulate you on your first hearing, your inaugural hearing. I kind-of like the sound of that.</t>
   </si>
   <si>
@@ -115,6 +136,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    Again, Mayor, thank you for your testimony here today. As someone who was born and raised in New York City, my father was in the NYPD for over 30 years, I really tremendously admire the work that is done by all of the agencies, especially NYPD emergency management, my good friend Joe Esposito there; FDNY, Lieutenant Nigro. The job that you have is one which I don't think any of us envy. Maybe it is great to march in the parades, but other than that it's, you know, a lot of abuse and a lot of attention.    Even though Miss Rice and I represent Long Island, the fact is, people should realize that Nassau and Suffolk Counties, as well as Westchester are all part of the UASI. It is New York City, Nassau, Suffolk, Westchester, even parts of Rockland, and also, we have to closely coordinate with northern New Jersey. Whenever you go to any of the mock drills they have, you see how much coordination is involved.    Also, as you said, New York City and the region, New York City region is the No. 1 target in the country. It is important for the rest of the country to realize the tremendous expense involved in that. I mean, you have well over 1,000 police officers working full time in various types of counterterrorism. They also work with the State police, Nassau and Suffolk police, working with the FBI and the JTTF, and it is a constant, really, state of war almost, at least a state of preventing a war. So any cuts at all really can be catastrophic to New Yorkers.    I have been on this committee since the start, and I don't think there is any one method or any one line of defense that is going to stop an attack. What you need are multiple defenses out there, and you certainly train and hope that at least one of those is going to work, is going to stop the next attackers. You don't know where it is going to be coming from; it could be Times Square; it could be the Brooklyn Bridge; it could be the subway system; it could be anywhere.    So I just think all of us on the committee should stand as one, not as Republicans or Democrats or from New York or from the rest of the country, realizing how vital this is that the funding be continued. Also, I think it is important to realize that the NYPD or the FDNY or emergency management, when they are out there doing the job, that is really not a New York City function. That is the Federal Government's responsibility to protect local governments and local municipalities from being attacked. That is a Federal responsibility.    So if you are carrying out a Federal responsibility, at the very least you should be compensated for the work that you do. This isn't a gift. This isn't charity you are getting. I mean, you are doing the work that the Federal Government should be doing. The fact is, you are better equipped to do it in many ways.    But, again, to be shortchanging you at a time like this, when the ISIS threats have never been greater, when we still have al-Qaeda, we still have al-Qaeda in the Arabian Peninsula, and we have the self-starters. We have the people at home sitting in their apartment with the computer who, you know, can become radicalized.    So I am just going to give you the opportunity to expand on how essential it is that all of the city departments and the neighboring locales receive the funding they need on homeland security.    Mr. de Blasio. Thank you very much, Congressman.    Congressman, let me also thank you at the outset, and all of your colleagues. I know you played a particularly crucial role in finally passing the Zadroga Act. I want to thank you for first responders in New York and all over America and so many people who were affected by 9/11. That was such a profound victory. Thank you for your leadership.</t>
   </si>
   <si>
@@ -163,18 +187,27 @@
     <t xml:space="preserve">    Mr. Donovan. I would like to welcome our second panel to today's hearing and thank them for their participation.    Mr. Jim Butterworth serves as the director of the Georgia Emergency Management Agency/Homeland Security, a position which he was appointed to in January 2015. Prior to his appointment, Mr. Butterworth served for 4 years as the adjutant general of Georgia. Previously, he served as a State Senator representing the 50th District in northeast Georgia. Mr. Butterworth is testifying on behalf of the National Emergency Management Association.    Welcome, sir.</t>
   </si>
   <si>
+    <t>Butterworth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Butterworth. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Chief Rhoda Mae Kerr serves as the fire chief of the Austin Fire Department and previously served in the same position with the city of Little Rock, Arkansas. She was also the deputy fire chief in Fort Lauderdale, Florida. Chief Kerr is the president and chair of the board of directors of the International Association of Fire Chiefs, and she is testifying in that capacity today.    Welcome, Chief.</t>
   </si>
   <si>
+    <t>Kerr</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Kerr. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. George Turner was appointed as the 23rd chief of police for the city of Atlanta on July 9, 2010. He is a 32-year veteran of the Atlanta Police Department and has worked in all areas of the department, including the uniformed division and investigations. Chief Turner previously served as the deputy chief of the support services division, which consists of the corporate services section, 9/11 communications center, information services section, and training academy. Chief Turner also serves as the second vice president of the Major Cities Chiefs Association, and he is testifying in that capacity today.    Welcome, Chief.    Mike Sena is the director of the Northern California Regional Intelligence Center, the fusion center in the San Francisco Bay Area. He currently serves as the president of the National Fusion Center Association, which represents the 78 State and locally-owned and -operated fusion centers across the country. Mr. Sena is testifying on behalf of the National Fusion Center Association.    Welcome, sir.</t>
   </si>
   <si>
+    <t>Sena</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sena. Thank you.</t>
   </si>
   <si>
@@ -199,6 +232,9 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Chief Kerr. The Chair now recognizes Chief Turner.</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Turner. Thank you. Good morning, Chairman Donovan, and Ranking Member Payne. I appear before you today as the chief of police of Atlanta, the largest metropolitan region in the South. It is also my privilege to serve on the board of directors for Major City Chiefs as the second vice president. I represent every major urban area in our Nation, the communities that would suffer most from further reduction in Federal assistance for law enforcement.    I speak today as one police chief on behalf of my colleagues from the 68 largest police departments in our country. I also received a letter of support from 17 organizations that represent local elected officials, emergency managers, port and transit operators, sheriffs, and major fire associations that have strong concerns about several severe cuts to 4 key homeland security grant programs. We ask the committee to consider the responsibility that each of you share with the chiefs of police protecting the American public from harm.    As we reflect on the events of Paris and San Bernardino, here at home, it is evident that preparedness for a terrorist attack is the highest priority than ever before. There is a certain irony to the proposed cuts. They come in the wake of terrorist attacks not just in cities abroad, but on our own shores, in Chattanooga, San Bernardino, and Philadelphia, for an example.    The proposed budget of DHS would reduce from $41.1 billion to $40.6 billion, a reduction of more than $500 million. But the 2 grant programs which assist States and local agencies would be cut by $537 million, more than the entire amount of the reduction of the Department of Homeland Security.    As a police chief, I have assigned personnel to Federal task forces and our regional fusion center. Every day we are asked to assist one of our Federal agencies or another. But funding from Washington does not even take up a small portion of the amount of money that Atlanta and the city police department provides. The same is true in every other major city in America. We are really subsidizing the Federal Government, because what we receive from Washington does not begin to pay the bill.    The world's busiest airport, Hartsfield-Jackson Airport, is protected by Atlanta personnel and a team effort from DHS that includes the model K-9 program we conduct with TSA. The Urban Area Security Initiative program funds purchases of specific equipment, including a robot that is equipped to board aircrafts. The Federal investment pays off each day in communities across the country during incidents both large and small. For example, much of the training and equipment used to respond to the May 2015 Amtrak derailment in Philadelphia were paid for with grants provided by FEMA.    Chairman Donovan and Ranking Member Payne, chiefs of police are grateful for all you do, and we look to you for leadership. To accept the proposed cuts would forfeit so much of what we have already invested in since the inception of DHS, and leave local agencies like mine on the fence to fend for themselves, with Federal agencies continuing to grow.    As a police chief, we have our common bonds with you. It is the safety of the public we are sworn to protect and serve. To this end, we implore that you restore balance to the partnership with DHS by protecting the funds which sustain the work of the subcommittee.    It is my pleasure to testify today. I look forward to any questions that you might have. I do want to talk about the fact that we need to continue to sustain the efforts that we have already pushed forward thus far in this partnership. Thank you.</t>
   </si>
   <si>
@@ -211,6 +247,9 @@
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Sena. The Chair now recognizes Sergeant Kierce.</t>
   </si>
   <si>
+    <t>Kierce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kierce. Chairman Donovan, Members of the committee, on behalf of Jersey City Mayor Steven M. Fulop, I wish to extend my sincere appreciation to Congressman Donald M. Payne, Jr., and Members of the committee for the opportunity to appear before you this morning.    The intent of the Urban Area Security Initiative program is to enhance regional preparedness in major metropolitan areas. The UASI program provides funding to address the unique multidiscipline planning operations, equipment, and training and exercise needs of high-threat high-density urban areas and to assist in building and sustaining capabilities related to terrorism prevention, protection, mitigation, response, and recovery.    The Jersey City-Newark UASI includes Jersey City, Newark, as well as the counties of Bergen, Essex, Hudson, Middlesex, Morris, Passaic, and Union. The mission of the Jersey City UASI is to ensure the sustainment and enhancement of counterterrorism capabilities and planning and responding to natural and man-made disasters. According to the FBI and the director of the national intelligence, the United States faces a significant and growing threat from individuals in this country who are willing to conduct domestic mass casualty attacks inspired by terrorist ideology. In fact, the DNI has said he anticipates ISIS-inspired attacks within the United States in the year ahead.    The threat of violent extremism poses a great risk to the Jersey City-Newark UASI region due to its dense population, geographic importance, and target-rich environment. The total population associated with the Jersey City-Newark UASI is approximately 4,792,594, which equates to more than half of the entire population of the State of New Jersey, making this region one of the most densely-populated areas in the United States.    In the middle of all this is a section of the New Jersey Turnpike in Union and Essex Counties that run through what the FBI and Government officials from New Jersey have dubbed the most dangerous 2 miles in America for terrorist targets. This area includes the largest port on the East Coast, Newark Airport, major rail lines, densely-populated cities, and chemical and petroleum plants. Former director of the New Jersey Office of Security and Preparedness Charlie McKenna described it best: ``If you want to make New Jersey the heart of America or the heart of the northeast, the Turnpike is the aorta.''    The Jersey City-Newark UASI region ranks 7 in the top 10 UASIs, based on DHS vulnerability and threats assessments. In addition to Port Newark and Newark Airport, the region is home to rail lines, bridges, and tunnels to New York City. Wall Street and other financial service firms house important front and back operations, including clearance and settlement services and other operations essential to the functioning of America's capital marketing, in Jersey City and Newark.    Since 2002, funding provided through the Department of Homeland Security Urban Area Security Initiative has afforded Tier 1 UASI regions to accomplish the following 10 goals. Goal 1 is strengthen CBRNE preparedness and response capabilities by acquiring the necessary equipment, training, and other resources needed by first responders to effectively detect, interdict, and respond to acts of terrorism or accidents involving CBRNE materials or agents.    No. 2, protect critical infrastructure and key resources along the region based on a systemic process of identifying and cataloguing infrastructure, conducting site visits and risk assessments, investing in target-hardening projects, and providing additional protective mitigation measures based on the current threat level.    No. 3, strengthen the information and sharing capabilities through collaborative partnerships with Federal, State, and local and private-sector stakeholders to better protect against and respond to terrorist threats, both foreign and domestic, incidents such as the active-shooter incidents.    No. 4, strengthen counterterrorism and law enforcement capabilities by continuing to improve our counterterrorism operations and partnerships across the region and by building specialized capabilities to address threats and acts of terrorism.    No. 5, enhance emergency management and response capabilities through the implementation of a proactive posture to prepare for the worst-case catastrophic scenarios at all levels of government.    No. 6, advance interoperability emergency communications through the efficient utilization and development of communication resources and procedures to ensure that our first responders can effectively communicate with each other during a major incident in order to protect lives and property.    No. 7, promote citizen and community preparedness by better preparing the Jersey City-Newark UASI region citizens and communities to be ready for disasters and other emergencies, including the ability to sustain themselves for 7 to 10 days after an event to assist their neighborhoods in the aftermath of a disaster.    No. 8, build back better from disasters and become more resilient against future events through thoughtful resiliency planning and by developing long-term recovery capabilities, mitigation initiatives, and other efforts to ensure the continuity of critical systems during a crisis.    No. 9, support health and emergency preparedness by readying the Jersey City-Newark UASI for a potential pandemic, and preparing local communities to distribute medical countermeasures on a large scale, supporting the ability of the health care community to surge bed capacity and other resources to manage large numbers of sick and injured during an incident.    No. 10, enhance community security capabilities through outreach and education, as well as by implementing programs and policies to prevent, protect, and respond to, recover from cyber attacks or other major cyber incidents in collaboration with key partners and stakeholders.    The proposed cuts to DHS UASI funding would have a significant negative impact on our UASI region's disaster preparedness, response, and recovery efforts. Hurricane Sandy and the continued threat of home-grown terrorism demonstrate how we must remain vigilant and prepared. Threats from terrorism and response and recovery efforts associated with natural disasters will not diminish because of the proposed budget cuts to the DHS UASI program. Even in the current fiscal climate we do not have the luxury of making significant reductions to our capabilities without placing our Nation at risk. If we continue to prepare for, respond to, and recover from evolving threats and disasters, we will need sufficient resources to sustain and adapt our capabilities accordingly.    In closing, I wish to offer a quote from your colleague and Ranking Member committee Member, Congressman Donald M. Payne, Jr. These grants are essential to making New Jersey a safer place for families to live and work, and they are critical to bringing economic security to the State. Following Hurricane Sandy, it is clear that we need to invest more to prepare for disasters and mitigate casualties as well as reduce the economic damages that result from these tragedies.    Thank you for affording me the opportunity to appear before you today.</t>
   </si>
   <si>
@@ -299,6 +338,12 @@
   </si>
   <si>
     <t>412624</t>
+  </si>
+  <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman. I apologize I missed the earlier part of the committee. I was chairing another committee hearing. But this is something very important to me. I am going to direct my questions to my good friend Mr. Butterworth, as we both served in the State Senate together. He was also the adjutant general of the Georgia National Guard, and now in his current position is fully aware of the emergency preparedness, the status, and the threats that face the State of Georgia.    Let me kind of summarize what we face here in Georgia. We have the busiest airport in the world, Atlanta Hartsfield. We have 130-plus medium- and small-sized airports throughout the State, 2 of the busiest import-export ports in the Nation in Savannah and Brunswick, Georgia. Atlanta is the headquarters of many Fortune 500 companies. We also have the Center for Disease Control in Atlanta, the home of several top research universities, as well as the financial center of the southeast. Weather is also a consideration in Georgia, as we are susceptible to tornadoes, as well as hurricanes coming from the Gulf Coast or the Atlantic Ocean.    Mr. Butterworth, with your knowledge of these, as well as the growing threat that we face from terrorism, how significant are these cuts in our ability to prepare and respond to whether it is a natural disaster, violent extremism, or a target against our citizens?</t>
@@ -731,7 +776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,7 +784,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,2645 +806,3112 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G84" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>108</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G86" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
       <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>108</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s">
+        <v>63</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G91" t="s">
+        <v>108</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s">
+        <v>108</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s">
+        <v>108</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>109</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>63</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>72</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
       <c r="H103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>60</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
       <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22623.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Donovan</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Payne</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400654</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>McCaul</t>
   </si>
   <si>
@@ -338,6 +350,9 @@
   </si>
   <si>
     <t>412624</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Loudermilk</t>
@@ -776,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,3109 +824,3356 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
-      </c>
-      <c r="G77" t="s">
-        <v>72</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" t="s">
-        <v>63</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" t="s">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G83" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" t="s">
-        <v>57</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G85" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" t="s">
-        <v>57</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>61</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G87" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I87" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
-      </c>
-      <c r="G88" t="s">
-        <v>57</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>61</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G89" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" t="s">
-        <v>63</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G91" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
-      </c>
-      <c r="G92" t="s">
-        <v>72</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G93" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G95" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H95" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>114</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G97" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
-      </c>
-      <c r="G99" t="s">
-        <v>72</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" t="s">
-        <v>77</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
-      </c>
-      <c r="G104" t="s">
-        <v>72</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" t="s">
-        <v>57</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>61</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
-      </c>
-      <c r="G108" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>67</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
-      </c>
-      <c r="G109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
